--- a/08_other_files/info_amps.xlsx
+++ b/08_other_files/info_amps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luigui/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luigui/Documents/amps_microbiome/08_other_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81586A6-B3AF-B84D-AAF3-D3FE4C894BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E5D39B-C370-5148-AAD5-5675FCC59367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5420" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{EF9C5A83-DF09-3B48-B88B-3BB3532AE977}"/>
+    <workbookView xWindow="3600" yWindow="500" windowWidth="21600" windowHeight="17500" activeTab="1" xr2:uid="{EF9C5A83-DF09-3B48-B88B-3BB3532AE977}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -896,7 +896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -924,12 +924,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2026,11 +2021,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561DEFF6-B190-DE48-8FA8-B76DDB58A61A}">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView zoomScale="188" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5027,8 +5022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58EF62E-4579-3140-A8F9-0C08C8AF2909}">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="257" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="257" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5215,44 +5210,44 @@
       <c r="A4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4">
         <v>25</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="5">
         <v>183</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4">
         <f>IF(D4&lt;21, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="28">
-        <v>1</v>
-      </c>
-      <c r="H4" s="27">
-        <v>1</v>
-      </c>
-      <c r="I4" s="28">
-        <v>0</v>
-      </c>
-      <c r="J4" s="27">
-        <v>1</v>
-      </c>
-      <c r="K4" s="28">
-        <v>1</v>
-      </c>
-      <c r="L4" s="27">
-        <v>1</v>
-      </c>
-      <c r="M4" s="31">
-        <v>0</v>
-      </c>
-      <c r="N4" s="28">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="24">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <f>SUM(F4:M4)</f>
         <v>5</v>
       </c>
@@ -5317,44 +5312,44 @@
       <c r="A8" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8">
         <v>26</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="5">
         <v>69</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8">
         <f>IF(D8&lt;21, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="28">
-        <v>1</v>
-      </c>
-      <c r="H8" s="27">
-        <v>1</v>
-      </c>
-      <c r="I8" s="28">
-        <v>0</v>
-      </c>
-      <c r="J8" s="27">
-        <v>1</v>
-      </c>
-      <c r="K8" s="28">
-        <v>1</v>
-      </c>
-      <c r="L8" s="27">
-        <v>1</v>
-      </c>
-      <c r="M8" s="31">
-        <v>0</v>
-      </c>
-      <c r="N8" s="28">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="24">
+        <v>0</v>
+      </c>
+      <c r="N8">
         <f>SUM(F8:M8)</f>
         <v>5</v>
       </c>
@@ -5442,44 +5437,44 @@
       <c r="A10" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10">
         <v>41</v>
       </c>
-      <c r="D10" s="32">
-        <v>1</v>
-      </c>
-      <c r="E10" s="30" t="s">
+      <c r="D10" s="27">
+        <v>1</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10">
         <f>IF(D10&lt;21, 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="G10" s="28">
-        <v>1</v>
-      </c>
-      <c r="H10" s="27">
-        <v>1</v>
-      </c>
-      <c r="I10" s="28">
-        <v>0</v>
-      </c>
-      <c r="J10" s="27">
-        <v>1</v>
-      </c>
-      <c r="K10" s="28">
-        <v>1</v>
-      </c>
-      <c r="L10" s="27">
-        <v>1</v>
-      </c>
-      <c r="M10" s="31">
-        <v>0</v>
-      </c>
-      <c r="N10" s="28">
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="24">
+        <v>0</v>
+      </c>
+      <c r="N10">
         <f>SUM(F10:M10)</f>
         <v>6</v>
       </c>
@@ -5500,44 +5495,44 @@
       <c r="A11" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11">
         <v>13</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="27">
         <v>7</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11">
         <f>IF(D11&lt;21, 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="1">
         <v>2</v>
       </c>
-      <c r="H11" s="27">
-        <v>1</v>
-      </c>
-      <c r="I11" s="28">
-        <v>0</v>
-      </c>
-      <c r="J11" s="27">
-        <v>1</v>
-      </c>
-      <c r="K11" s="28">
-        <v>1</v>
-      </c>
-      <c r="L11" s="31">
-        <v>0</v>
-      </c>
-      <c r="M11" s="31">
-        <v>0</v>
-      </c>
-      <c r="N11" s="28">
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" s="24">
+        <v>0</v>
+      </c>
+      <c r="M11" s="24">
+        <v>0</v>
+      </c>
+      <c r="N11">
         <f>SUM(F11:M11)</f>
         <v>6</v>
       </c>

--- a/08_other_files/info_amps.xlsx
+++ b/08_other_files/info_amps.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luigui/Documents/amps_microbiome/08_other_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E5D39B-C370-5148-AAD5-5675FCC59367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2974C36-F125-B643-9A42-BF14B489A25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="500" windowWidth="21600" windowHeight="17500" activeTab="1" xr2:uid="{EF9C5A83-DF09-3B48-B88B-3BB3532AE977}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{EF9C5A83-DF09-3B48-B88B-3BB3532AE977}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$N$1:$N$11</definedName>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="249">
   <si>
     <t># Informacion relevant AMPs sobreexpresados</t>
   </si>
@@ -743,13 +745,58 @@
   </si>
   <si>
     <t>Determinar el origen del fago. Tiene marcas de fago? Negativo Phaster, Virsorter, No tiene Dominios de fagos. Conclusión: contaminación de bacteria en fagoma, se puede comprobar con blast</t>
+  </si>
+  <si>
+    <t>Contexto genómico bien definido</t>
+  </si>
+  <si>
+    <t>Péptido en la referencia</t>
+  </si>
+  <si>
+    <t>amp.id</t>
+  </si>
+  <si>
+    <t>AMP predictors</t>
+  </si>
+  <si>
+    <t>Genomic context reference</t>
+  </si>
+  <si>
+    <t>Protein phylogeny</t>
+  </si>
+  <si>
+    <t>Protein phylogeny with homologs</t>
+  </si>
+  <si>
+    <t>Peptide</t>
+  </si>
+  <si>
+    <t>Nucleotide phylogeny</t>
+  </si>
+  <si>
+    <t>Score summary</t>
+  </si>
+  <si>
+    <t>Peptide available in the reference</t>
+  </si>
+  <si>
+    <t>Nucleotide phylogeny with homologs</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Ob</t>
+  </si>
+  <si>
+    <t>OMS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -826,6 +873,14 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -883,7 +938,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -891,12 +946,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -925,6 +995,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1929,7 +2007,7 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView zoomScale="229" workbookViewId="0">
-      <selection activeCell="A15" sqref="A2:A15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2021,11 +2099,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561DEFF6-B190-DE48-8FA8-B76DDB58A61A}">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="188" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="L37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4865,6 +4943,7 @@
     <hyperlink ref="H23" r:id="rId75" display="https://github.com/LuiguiGallardo/amps_microbiome/blob/main/05_genomic_context/01_overexpressed/02_graphs/AMP_851511_c0_g1_i1.png" xr:uid="{48F8F0C9-0572-9B4F-BC1D-D8AC2984FE4D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId76"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -5023,7 +5102,7 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView zoomScale="257" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G1" sqref="G1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5863,4 +5942,3833 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2F6994-F3AF-B748-96EB-3B0B7B6AB9B4}">
+  <dimension ref="A1:I55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="31.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="30">
+        <v>1</v>
+      </c>
+      <c r="C2" s="30">
+        <v>1</v>
+      </c>
+      <c r="D2" s="30">
+        <v>1</v>
+      </c>
+      <c r="E2" s="30">
+        <v>1</v>
+      </c>
+      <c r="F2" s="30">
+        <v>1</v>
+      </c>
+      <c r="G2" s="30">
+        <f>SUM(B2:F2)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="30">
+        <v>2</v>
+      </c>
+      <c r="C3" s="30">
+        <v>1</v>
+      </c>
+      <c r="D3" s="30">
+        <v>1</v>
+      </c>
+      <c r="E3" s="30">
+        <v>1</v>
+      </c>
+      <c r="F3" s="30">
+        <v>1</v>
+      </c>
+      <c r="G3" s="30">
+        <f t="shared" ref="G3:G26" si="0">SUM(B3:F3)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="30">
+        <v>1</v>
+      </c>
+      <c r="C4" s="30">
+        <v>1</v>
+      </c>
+      <c r="D4" s="30">
+        <v>0</v>
+      </c>
+      <c r="E4" s="30">
+        <v>1</v>
+      </c>
+      <c r="F4" s="30">
+        <v>0</v>
+      </c>
+      <c r="G4" s="30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="30">
+        <v>2</v>
+      </c>
+      <c r="C5" s="30">
+        <v>1</v>
+      </c>
+      <c r="D5" s="30">
+        <v>0</v>
+      </c>
+      <c r="E5" s="30">
+        <v>1</v>
+      </c>
+      <c r="F5" s="30">
+        <v>0</v>
+      </c>
+      <c r="G5" s="30">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="30">
+        <v>1</v>
+      </c>
+      <c r="C6" s="30">
+        <v>0</v>
+      </c>
+      <c r="D6" s="30">
+        <v>0</v>
+      </c>
+      <c r="E6" s="30">
+        <v>1</v>
+      </c>
+      <c r="F6" s="30">
+        <v>0</v>
+      </c>
+      <c r="G6" s="30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="30">
+        <v>1</v>
+      </c>
+      <c r="C7" s="30">
+        <v>1</v>
+      </c>
+      <c r="D7" s="30">
+        <v>0</v>
+      </c>
+      <c r="E7" s="30">
+        <v>1</v>
+      </c>
+      <c r="F7" s="30">
+        <v>1</v>
+      </c>
+      <c r="G7" s="30">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="30">
+        <v>1</v>
+      </c>
+      <c r="C8" s="30">
+        <v>0</v>
+      </c>
+      <c r="D8" s="30">
+        <v>0</v>
+      </c>
+      <c r="E8" s="30">
+        <v>1</v>
+      </c>
+      <c r="F8" s="30">
+        <v>0</v>
+      </c>
+      <c r="G8" s="30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="30">
+        <v>1</v>
+      </c>
+      <c r="C9" s="30">
+        <v>1</v>
+      </c>
+      <c r="D9" s="30">
+        <v>0</v>
+      </c>
+      <c r="E9" s="30">
+        <v>1</v>
+      </c>
+      <c r="F9" s="30">
+        <v>0</v>
+      </c>
+      <c r="G9" s="30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="30">
+        <v>1</v>
+      </c>
+      <c r="C10" s="30">
+        <v>0</v>
+      </c>
+      <c r="D10" s="30">
+        <v>0</v>
+      </c>
+      <c r="E10" s="30">
+        <v>0</v>
+      </c>
+      <c r="F10" s="30">
+        <v>1</v>
+      </c>
+      <c r="G10" s="30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="30">
+        <v>2</v>
+      </c>
+      <c r="C11" s="30">
+        <v>1</v>
+      </c>
+      <c r="D11" s="30">
+        <v>0</v>
+      </c>
+      <c r="E11" s="30">
+        <v>1</v>
+      </c>
+      <c r="F11" s="30">
+        <v>0</v>
+      </c>
+      <c r="G11" s="30">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="30">
+        <v>1</v>
+      </c>
+      <c r="C12" s="30">
+        <v>1</v>
+      </c>
+      <c r="D12" s="30">
+        <v>0</v>
+      </c>
+      <c r="E12" s="30">
+        <v>1</v>
+      </c>
+      <c r="F12" s="30">
+        <v>0</v>
+      </c>
+      <c r="G12" s="30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="30">
+        <v>1</v>
+      </c>
+      <c r="C13" s="30">
+        <v>0</v>
+      </c>
+      <c r="D13" s="30">
+        <v>0</v>
+      </c>
+      <c r="E13" s="30">
+        <v>1</v>
+      </c>
+      <c r="F13" s="30">
+        <v>0</v>
+      </c>
+      <c r="G13" s="30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="30">
+        <v>1</v>
+      </c>
+      <c r="C14" s="30">
+        <v>1</v>
+      </c>
+      <c r="D14" s="30">
+        <v>0</v>
+      </c>
+      <c r="E14" s="30">
+        <v>1</v>
+      </c>
+      <c r="F14" s="30">
+        <v>0</v>
+      </c>
+      <c r="G14" s="30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="30">
+        <v>1</v>
+      </c>
+      <c r="C15" s="30">
+        <v>0</v>
+      </c>
+      <c r="D15" s="30">
+        <v>0</v>
+      </c>
+      <c r="E15" s="30">
+        <v>0</v>
+      </c>
+      <c r="F15" s="30">
+        <v>0</v>
+      </c>
+      <c r="G15" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="30">
+        <v>1</v>
+      </c>
+      <c r="C16" s="30">
+        <v>1</v>
+      </c>
+      <c r="D16" s="30">
+        <v>0</v>
+      </c>
+      <c r="E16" s="30">
+        <v>1</v>
+      </c>
+      <c r="F16" s="30">
+        <v>1</v>
+      </c>
+      <c r="G16" s="30">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="30">
+        <v>1</v>
+      </c>
+      <c r="C17" s="30">
+        <v>1</v>
+      </c>
+      <c r="D17" s="30">
+        <v>1</v>
+      </c>
+      <c r="E17" s="30">
+        <v>0</v>
+      </c>
+      <c r="F17" s="30">
+        <v>0</v>
+      </c>
+      <c r="G17" s="30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="30">
+        <v>1</v>
+      </c>
+      <c r="C18" s="30">
+        <v>1</v>
+      </c>
+      <c r="D18" s="30">
+        <v>0</v>
+      </c>
+      <c r="E18" s="30">
+        <v>1</v>
+      </c>
+      <c r="F18" s="30">
+        <v>0</v>
+      </c>
+      <c r="G18" s="30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="30">
+        <v>1</v>
+      </c>
+      <c r="C19" s="30">
+        <v>0</v>
+      </c>
+      <c r="D19" s="30">
+        <v>0</v>
+      </c>
+      <c r="E19" s="30">
+        <v>0</v>
+      </c>
+      <c r="F19" s="30">
+        <v>0</v>
+      </c>
+      <c r="G19" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="30">
+        <v>3</v>
+      </c>
+      <c r="C20" s="30">
+        <v>1</v>
+      </c>
+      <c r="D20" s="30">
+        <v>1</v>
+      </c>
+      <c r="E20" s="30">
+        <v>1</v>
+      </c>
+      <c r="F20" s="30">
+        <v>1</v>
+      </c>
+      <c r="G20" s="30">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="30">
+        <v>1</v>
+      </c>
+      <c r="C21" s="30">
+        <v>1</v>
+      </c>
+      <c r="D21" s="30">
+        <v>0</v>
+      </c>
+      <c r="E21" s="30">
+        <v>1</v>
+      </c>
+      <c r="F21" s="30">
+        <v>0</v>
+      </c>
+      <c r="G21" s="30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="30">
+        <v>1</v>
+      </c>
+      <c r="C22" s="30">
+        <v>0</v>
+      </c>
+      <c r="D22" s="30">
+        <v>0</v>
+      </c>
+      <c r="E22" s="30">
+        <v>0</v>
+      </c>
+      <c r="F22" s="30">
+        <v>0</v>
+      </c>
+      <c r="G22" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="30">
+        <v>1</v>
+      </c>
+      <c r="C23" s="30">
+        <v>1</v>
+      </c>
+      <c r="D23" s="30">
+        <v>0</v>
+      </c>
+      <c r="E23" s="30">
+        <v>1</v>
+      </c>
+      <c r="F23" s="30">
+        <v>0</v>
+      </c>
+      <c r="G23" s="30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="30">
+        <v>1</v>
+      </c>
+      <c r="C24" s="30">
+        <v>1</v>
+      </c>
+      <c r="D24" s="30">
+        <v>0</v>
+      </c>
+      <c r="E24" s="30">
+        <v>1</v>
+      </c>
+      <c r="F24" s="30">
+        <v>0</v>
+      </c>
+      <c r="G24" s="30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="30">
+        <v>1</v>
+      </c>
+      <c r="C25" s="30">
+        <v>1</v>
+      </c>
+      <c r="D25" s="30">
+        <v>0</v>
+      </c>
+      <c r="E25" s="30">
+        <v>1</v>
+      </c>
+      <c r="F25" s="30">
+        <v>1</v>
+      </c>
+      <c r="G25" s="30">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="30">
+        <v>2</v>
+      </c>
+      <c r="C26" s="30">
+        <v>1</v>
+      </c>
+      <c r="D26" s="30">
+        <v>0</v>
+      </c>
+      <c r="E26" s="30">
+        <v>1</v>
+      </c>
+      <c r="F26" s="30">
+        <v>0</v>
+      </c>
+      <c r="G26" s="30">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="10">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1</v>
+      </c>
+      <c r="F31" s="10">
+        <v>1</v>
+      </c>
+      <c r="G31" s="8">
+        <v>1</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10">
+        <f t="shared" ref="I31:I55" si="1">SUM(A31:H31)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="8">
+        <v>2</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1</v>
+      </c>
+      <c r="D32" s="10">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1</v>
+      </c>
+      <c r="F32" s="10">
+        <v>1</v>
+      </c>
+      <c r="G32" s="8">
+        <v>1</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="13">
+        <v>1</v>
+      </c>
+      <c r="C33" s="15">
+        <v>1</v>
+      </c>
+      <c r="D33" s="13">
+        <v>0</v>
+      </c>
+      <c r="E33" s="15">
+        <v>1</v>
+      </c>
+      <c r="F33" s="13">
+        <v>1</v>
+      </c>
+      <c r="G33" s="16">
+        <v>0</v>
+      </c>
+      <c r="H33" s="16">
+        <v>0</v>
+      </c>
+      <c r="I33" s="13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="8">
+        <v>2</v>
+      </c>
+      <c r="C34" s="8">
+        <v>1</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1</v>
+      </c>
+      <c r="F34" s="10">
+        <v>1</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="13">
+        <v>1</v>
+      </c>
+      <c r="C35" s="19">
+        <v>0</v>
+      </c>
+      <c r="D35" s="13">
+        <v>0</v>
+      </c>
+      <c r="E35" s="15">
+        <v>1</v>
+      </c>
+      <c r="F35" s="13">
+        <v>0</v>
+      </c>
+      <c r="G35" s="16">
+        <v>0</v>
+      </c>
+      <c r="H35" s="15">
+        <v>1</v>
+      </c>
+      <c r="I35" s="13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="10">
+        <v>1</v>
+      </c>
+      <c r="C36" s="8">
+        <v>1</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1</v>
+      </c>
+      <c r="F36" s="10">
+        <v>1</v>
+      </c>
+      <c r="G36" s="8">
+        <v>1</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="13">
+        <v>1</v>
+      </c>
+      <c r="C37" s="19">
+        <v>0</v>
+      </c>
+      <c r="D37" s="13">
+        <v>0</v>
+      </c>
+      <c r="E37" s="15">
+        <v>1</v>
+      </c>
+      <c r="F37" s="13">
+        <v>0</v>
+      </c>
+      <c r="G37" s="16">
+        <v>0</v>
+      </c>
+      <c r="H37" s="16">
+        <v>0</v>
+      </c>
+      <c r="I37" s="13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="10">
+        <v>1</v>
+      </c>
+      <c r="C38" s="8">
+        <v>1</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1</v>
+      </c>
+      <c r="F38" s="10">
+        <v>1</v>
+      </c>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="13">
+        <v>1</v>
+      </c>
+      <c r="C39" s="19">
+        <v>0</v>
+      </c>
+      <c r="D39" s="13">
+        <v>0</v>
+      </c>
+      <c r="E39" s="16">
+        <v>0</v>
+      </c>
+      <c r="F39" s="13">
+        <v>0</v>
+      </c>
+      <c r="G39" s="15">
+        <v>1</v>
+      </c>
+      <c r="H39" s="16">
+        <v>0</v>
+      </c>
+      <c r="I39" s="13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="8">
+        <v>2</v>
+      </c>
+      <c r="C40" s="8">
+        <v>1</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1</v>
+      </c>
+      <c r="F40" s="10">
+        <v>1</v>
+      </c>
+      <c r="G40" s="11">
+        <v>0</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="13">
+        <v>1</v>
+      </c>
+      <c r="C41" s="15">
+        <v>1</v>
+      </c>
+      <c r="D41" s="13">
+        <v>0</v>
+      </c>
+      <c r="E41" s="15">
+        <v>1</v>
+      </c>
+      <c r="F41" s="13">
+        <v>1</v>
+      </c>
+      <c r="G41" s="16">
+        <v>0</v>
+      </c>
+      <c r="H41" s="16">
+        <v>0</v>
+      </c>
+      <c r="I41" s="13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="13">
+        <v>1</v>
+      </c>
+      <c r="C42" s="19">
+        <v>0</v>
+      </c>
+      <c r="D42" s="13">
+        <v>0</v>
+      </c>
+      <c r="E42" s="15">
+        <v>1</v>
+      </c>
+      <c r="F42" s="13">
+        <v>1</v>
+      </c>
+      <c r="G42" s="16">
+        <v>0</v>
+      </c>
+      <c r="H42" s="16">
+        <v>0</v>
+      </c>
+      <c r="I42" s="13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="13">
+        <v>1</v>
+      </c>
+      <c r="C43" s="15">
+        <v>1</v>
+      </c>
+      <c r="D43" s="13">
+        <v>0</v>
+      </c>
+      <c r="E43" s="15">
+        <v>1</v>
+      </c>
+      <c r="F43" s="13">
+        <v>1</v>
+      </c>
+      <c r="G43" s="16">
+        <v>0</v>
+      </c>
+      <c r="H43" s="16">
+        <v>0</v>
+      </c>
+      <c r="I43" s="13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="13">
+        <v>1</v>
+      </c>
+      <c r="C44" s="19">
+        <v>0</v>
+      </c>
+      <c r="D44" s="13">
+        <v>0</v>
+      </c>
+      <c r="E44" s="16">
+        <v>0</v>
+      </c>
+      <c r="F44" s="13">
+        <v>0</v>
+      </c>
+      <c r="G44" s="16">
+        <v>0</v>
+      </c>
+      <c r="H44" s="16">
+        <v>0</v>
+      </c>
+      <c r="I44" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="10">
+        <v>1</v>
+      </c>
+      <c r="C45" s="8">
+        <v>1</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0</v>
+      </c>
+      <c r="E45" s="8">
+        <v>1</v>
+      </c>
+      <c r="F45" s="10">
+        <v>1</v>
+      </c>
+      <c r="G45" s="8">
+        <v>1</v>
+      </c>
+      <c r="H45" s="11">
+        <v>0</v>
+      </c>
+      <c r="I45" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="13">
+        <v>1</v>
+      </c>
+      <c r="C46" s="15">
+        <v>1</v>
+      </c>
+      <c r="D46" s="13">
+        <v>1</v>
+      </c>
+      <c r="E46" s="16">
+        <v>0</v>
+      </c>
+      <c r="F46" s="13">
+        <v>0</v>
+      </c>
+      <c r="G46" s="16">
+        <v>0</v>
+      </c>
+      <c r="H46" s="16">
+        <v>0</v>
+      </c>
+      <c r="I46" s="13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="13">
+        <v>1</v>
+      </c>
+      <c r="C47" s="15">
+        <v>1</v>
+      </c>
+      <c r="D47" s="13">
+        <v>0</v>
+      </c>
+      <c r="E47" s="15">
+        <v>1</v>
+      </c>
+      <c r="F47" s="13">
+        <v>1</v>
+      </c>
+      <c r="G47" s="16">
+        <v>0</v>
+      </c>
+      <c r="H47" s="13">
+        <v>1</v>
+      </c>
+      <c r="I47" s="13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="13">
+        <v>1</v>
+      </c>
+      <c r="C48" s="19">
+        <v>0</v>
+      </c>
+      <c r="D48" s="13">
+        <v>0</v>
+      </c>
+      <c r="E48" s="16">
+        <v>0</v>
+      </c>
+      <c r="F48" s="13">
+        <v>0</v>
+      </c>
+      <c r="G48" s="16">
+        <v>0</v>
+      </c>
+      <c r="H48" s="13">
+        <v>1</v>
+      </c>
+      <c r="I48" s="13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="8">
+        <v>3</v>
+      </c>
+      <c r="C49" s="8">
+        <v>1</v>
+      </c>
+      <c r="D49" s="10">
+        <v>1</v>
+      </c>
+      <c r="E49" s="8">
+        <v>1</v>
+      </c>
+      <c r="F49" s="10">
+        <v>1</v>
+      </c>
+      <c r="G49" s="8">
+        <v>1</v>
+      </c>
+      <c r="H49" s="11">
+        <v>0</v>
+      </c>
+      <c r="I49" s="10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="10">
+        <v>1</v>
+      </c>
+      <c r="C50" s="8">
+        <v>1</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0</v>
+      </c>
+      <c r="E50" s="8">
+        <v>1</v>
+      </c>
+      <c r="F50" s="10">
+        <v>1</v>
+      </c>
+      <c r="G50" s="11">
+        <v>0</v>
+      </c>
+      <c r="H50" s="8">
+        <v>1</v>
+      </c>
+      <c r="I50" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="13">
+        <v>1</v>
+      </c>
+      <c r="C51" s="19">
+        <v>0</v>
+      </c>
+      <c r="D51" s="13">
+        <v>0</v>
+      </c>
+      <c r="E51" s="16">
+        <v>0</v>
+      </c>
+      <c r="F51" s="13">
+        <v>0</v>
+      </c>
+      <c r="G51" s="16">
+        <v>0</v>
+      </c>
+      <c r="H51" s="16">
+        <v>0</v>
+      </c>
+      <c r="I51" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="13">
+        <v>1</v>
+      </c>
+      <c r="C52" s="15">
+        <v>1</v>
+      </c>
+      <c r="D52" s="13">
+        <v>0</v>
+      </c>
+      <c r="E52" s="15">
+        <v>1</v>
+      </c>
+      <c r="F52" s="13">
+        <v>1</v>
+      </c>
+      <c r="G52" s="16">
+        <v>0</v>
+      </c>
+      <c r="H52" s="16">
+        <v>0</v>
+      </c>
+      <c r="I52" s="13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1</v>
+      </c>
+      <c r="C53" s="15">
+        <v>1</v>
+      </c>
+      <c r="D53" s="13">
+        <v>0</v>
+      </c>
+      <c r="E53" s="15">
+        <v>1</v>
+      </c>
+      <c r="F53" s="13">
+        <v>1</v>
+      </c>
+      <c r="G53" s="16">
+        <v>0</v>
+      </c>
+      <c r="H53" s="16">
+        <v>0</v>
+      </c>
+      <c r="I53" s="13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" s="10">
+        <v>1</v>
+      </c>
+      <c r="C54" s="8">
+        <v>1</v>
+      </c>
+      <c r="D54" s="10">
+        <v>0</v>
+      </c>
+      <c r="E54" s="8">
+        <v>1</v>
+      </c>
+      <c r="F54" s="10">
+        <v>1</v>
+      </c>
+      <c r="G54" s="8">
+        <v>1</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
+      </c>
+      <c r="I54" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" s="8">
+        <v>2</v>
+      </c>
+      <c r="C55" s="8">
+        <v>1</v>
+      </c>
+      <c r="D55" s="10">
+        <v>0</v>
+      </c>
+      <c r="E55" s="8">
+        <v>1</v>
+      </c>
+      <c r="F55" s="10">
+        <v>1</v>
+      </c>
+      <c r="G55" s="11">
+        <v>0</v>
+      </c>
+      <c r="H55" s="11">
+        <v>0</v>
+      </c>
+      <c r="I55" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:B26">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F7C3B64C-A431-2045-BF8C-1A18DE7CDDC4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:B55">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3F7D74DF-09FA-3741-B898-39325B13200A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C26">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8C018C86-03A3-D946-9FCE-26EBDA3A3D5D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:C55">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{89E9AFA0-2630-704C-A513-B7D86E2FF485}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D26">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E87D3DE7-4AE4-424A-9740-973EF2D369BF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:D55">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ED135C9D-895C-DA43-8898-E15B7565C6E9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E26">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0B939FE7-5D78-8D44-BA5E-BDEC65498DF7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E55">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F645748A-7FA6-FF42-84B4-2AB5E8CE15D4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F26">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9E74E2A2-EF31-4B43-8463-6ACD4CD0735D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30:F55">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6BF825F9-B1E6-9B49-AD22-3AB36BD824B7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:G1">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{73C4F673-B948-064B-B8AD-456ACB1FBCED}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G26">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{966F44F3-DEE6-CF40-95CD-710DD403EC6F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:G55">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6C482B06-0FD8-674E-8C88-D374514FB28C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:G55">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F75AAEDD-B20B-4844-AD2A-AA252D1DEC3B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:H55">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{63A6B119-A5FF-EB45-86E4-79966B23FBF6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30:I55">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C94A4499-F1D4-A846-AD9D-50EDB4E848D4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F7C3B64C-A431-2045-BF8C-1A18DE7CDDC4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B1:B26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3F7D74DF-09FA-3741-B898-39325B13200A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B31:B55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8C018C86-03A3-D946-9FCE-26EBDA3A3D5D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C1:C26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{89E9AFA0-2630-704C-A513-B7D86E2FF485}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C31:C55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E87D3DE7-4AE4-424A-9740-973EF2D369BF}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D1:D26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ED135C9D-895C-DA43-8898-E15B7565C6E9}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D31:D55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0B939FE7-5D78-8D44-BA5E-BDEC65498DF7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E1:E26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F645748A-7FA6-FF42-84B4-2AB5E8CE15D4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E31:E55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9E74E2A2-EF31-4B43-8463-6ACD4CD0735D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F1:F26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6BF825F9-B1E6-9B49-AD22-3AB36BD824B7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F30:F55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{73C4F673-B948-064B-B8AD-456ACB1FBCED}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F1:G1</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{966F44F3-DEE6-CF40-95CD-710DD403EC6F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G1:G26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6C482B06-0FD8-674E-8C88-D374514FB28C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G30:G55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F75AAEDD-B20B-4844-AD2A-AA252D1DEC3B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G31:G55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{63A6B119-A5FF-EB45-86E4-79966B23FBF6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H31:H55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C94A4499-F1D4-A846-AD9D-50EDB4E848D4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I30:I55</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9144CBD4-7E15-724B-AFE1-C56A10A5445F}">
+  <dimension ref="A1:K55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="30">
+        <v>1</v>
+      </c>
+      <c r="D2" s="30">
+        <v>1</v>
+      </c>
+      <c r="E2" s="30">
+        <v>1</v>
+      </c>
+      <c r="F2" s="30">
+        <v>1</v>
+      </c>
+      <c r="G2" s="30">
+        <v>1</v>
+      </c>
+      <c r="H2" s="30">
+        <f>SUM(C2:G2)</f>
+        <v>5</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="30">
+        <v>2</v>
+      </c>
+      <c r="D3" s="30">
+        <v>1</v>
+      </c>
+      <c r="E3" s="30">
+        <v>1</v>
+      </c>
+      <c r="F3" s="30">
+        <v>1</v>
+      </c>
+      <c r="G3" s="30">
+        <v>1</v>
+      </c>
+      <c r="H3" s="30">
+        <f t="shared" ref="H3:H26" si="0">SUM(C3:G3)</f>
+        <v>6</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="30">
+        <v>1</v>
+      </c>
+      <c r="D4" s="30">
+        <v>1</v>
+      </c>
+      <c r="E4" s="30">
+        <v>0</v>
+      </c>
+      <c r="F4" s="30">
+        <v>1</v>
+      </c>
+      <c r="G4" s="30">
+        <v>0</v>
+      </c>
+      <c r="H4" s="30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="30">
+        <v>2</v>
+      </c>
+      <c r="D5" s="30">
+        <v>1</v>
+      </c>
+      <c r="E5" s="30">
+        <v>0</v>
+      </c>
+      <c r="F5" s="30">
+        <v>1</v>
+      </c>
+      <c r="G5" s="30">
+        <v>0</v>
+      </c>
+      <c r="H5" s="30">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" s="30">
+        <v>1</v>
+      </c>
+      <c r="D6" s="30">
+        <v>0</v>
+      </c>
+      <c r="E6" s="30">
+        <v>0</v>
+      </c>
+      <c r="F6" s="30">
+        <v>1</v>
+      </c>
+      <c r="G6" s="30">
+        <v>0</v>
+      </c>
+      <c r="H6" s="30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="30">
+        <v>1</v>
+      </c>
+      <c r="D7" s="30">
+        <v>1</v>
+      </c>
+      <c r="E7" s="30">
+        <v>0</v>
+      </c>
+      <c r="F7" s="30">
+        <v>1</v>
+      </c>
+      <c r="G7" s="30">
+        <v>1</v>
+      </c>
+      <c r="H7" s="30">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="30">
+        <v>1</v>
+      </c>
+      <c r="D8" s="30">
+        <v>0</v>
+      </c>
+      <c r="E8" s="30">
+        <v>0</v>
+      </c>
+      <c r="F8" s="30">
+        <v>1</v>
+      </c>
+      <c r="G8" s="30">
+        <v>0</v>
+      </c>
+      <c r="H8" s="30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="30">
+        <v>1</v>
+      </c>
+      <c r="D9" s="30">
+        <v>1</v>
+      </c>
+      <c r="E9" s="30">
+        <v>0</v>
+      </c>
+      <c r="F9" s="30">
+        <v>1</v>
+      </c>
+      <c r="G9" s="30">
+        <v>0</v>
+      </c>
+      <c r="H9" s="30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="30">
+        <v>1</v>
+      </c>
+      <c r="D10" s="30">
+        <v>0</v>
+      </c>
+      <c r="E10" s="30">
+        <v>0</v>
+      </c>
+      <c r="F10" s="30">
+        <v>0</v>
+      </c>
+      <c r="G10" s="30">
+        <v>1</v>
+      </c>
+      <c r="H10" s="30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="30">
+        <v>2</v>
+      </c>
+      <c r="D11" s="30">
+        <v>1</v>
+      </c>
+      <c r="E11" s="30">
+        <v>0</v>
+      </c>
+      <c r="F11" s="30">
+        <v>1</v>
+      </c>
+      <c r="G11" s="30">
+        <v>0</v>
+      </c>
+      <c r="H11" s="30">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C12" s="30">
+        <v>1</v>
+      </c>
+      <c r="D12" s="30">
+        <v>1</v>
+      </c>
+      <c r="E12" s="30">
+        <v>0</v>
+      </c>
+      <c r="F12" s="30">
+        <v>1</v>
+      </c>
+      <c r="G12" s="30">
+        <v>0</v>
+      </c>
+      <c r="H12" s="30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" s="30">
+        <v>1</v>
+      </c>
+      <c r="D13" s="30">
+        <v>0</v>
+      </c>
+      <c r="E13" s="30">
+        <v>0</v>
+      </c>
+      <c r="F13" s="30">
+        <v>1</v>
+      </c>
+      <c r="G13" s="30">
+        <v>0</v>
+      </c>
+      <c r="H13" s="30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" s="30">
+        <v>1</v>
+      </c>
+      <c r="D14" s="30">
+        <v>1</v>
+      </c>
+      <c r="E14" s="30">
+        <v>0</v>
+      </c>
+      <c r="F14" s="30">
+        <v>1</v>
+      </c>
+      <c r="G14" s="30">
+        <v>0</v>
+      </c>
+      <c r="H14" s="30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C15" s="30">
+        <v>1</v>
+      </c>
+      <c r="D15" s="30">
+        <v>0</v>
+      </c>
+      <c r="E15" s="30">
+        <v>0</v>
+      </c>
+      <c r="F15" s="30">
+        <v>0</v>
+      </c>
+      <c r="G15" s="30">
+        <v>0</v>
+      </c>
+      <c r="H15" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="30">
+        <v>1</v>
+      </c>
+      <c r="D16" s="30">
+        <v>1</v>
+      </c>
+      <c r="E16" s="30">
+        <v>0</v>
+      </c>
+      <c r="F16" s="30">
+        <v>1</v>
+      </c>
+      <c r="G16" s="30">
+        <v>1</v>
+      </c>
+      <c r="H16" s="30">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C17" s="30">
+        <v>1</v>
+      </c>
+      <c r="D17" s="30">
+        <v>1</v>
+      </c>
+      <c r="E17" s="30">
+        <v>1</v>
+      </c>
+      <c r="F17" s="30">
+        <v>0</v>
+      </c>
+      <c r="G17" s="30">
+        <v>0</v>
+      </c>
+      <c r="H17" s="30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" s="30">
+        <v>1</v>
+      </c>
+      <c r="D18" s="30">
+        <v>1</v>
+      </c>
+      <c r="E18" s="30">
+        <v>0</v>
+      </c>
+      <c r="F18" s="30">
+        <v>1</v>
+      </c>
+      <c r="G18" s="30">
+        <v>0</v>
+      </c>
+      <c r="H18" s="30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C19" s="30">
+        <v>1</v>
+      </c>
+      <c r="D19" s="30">
+        <v>0</v>
+      </c>
+      <c r="E19" s="30">
+        <v>0</v>
+      </c>
+      <c r="F19" s="30">
+        <v>0</v>
+      </c>
+      <c r="G19" s="30">
+        <v>0</v>
+      </c>
+      <c r="H19" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="30">
+        <v>3</v>
+      </c>
+      <c r="D20" s="30">
+        <v>1</v>
+      </c>
+      <c r="E20" s="30">
+        <v>1</v>
+      </c>
+      <c r="F20" s="30">
+        <v>1</v>
+      </c>
+      <c r="G20" s="30">
+        <v>1</v>
+      </c>
+      <c r="H20" s="30">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="30">
+        <v>1</v>
+      </c>
+      <c r="D21" s="30">
+        <v>1</v>
+      </c>
+      <c r="E21" s="30">
+        <v>0</v>
+      </c>
+      <c r="F21" s="30">
+        <v>1</v>
+      </c>
+      <c r="G21" s="30">
+        <v>0</v>
+      </c>
+      <c r="H21" s="30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" s="30">
+        <v>1</v>
+      </c>
+      <c r="D22" s="30">
+        <v>0</v>
+      </c>
+      <c r="E22" s="30">
+        <v>0</v>
+      </c>
+      <c r="F22" s="30">
+        <v>0</v>
+      </c>
+      <c r="G22" s="30">
+        <v>0</v>
+      </c>
+      <c r="H22" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C23" s="30">
+        <v>1</v>
+      </c>
+      <c r="D23" s="30">
+        <v>1</v>
+      </c>
+      <c r="E23" s="30">
+        <v>0</v>
+      </c>
+      <c r="F23" s="30">
+        <v>1</v>
+      </c>
+      <c r="G23" s="30">
+        <v>0</v>
+      </c>
+      <c r="H23" s="30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" s="30">
+        <v>1</v>
+      </c>
+      <c r="D24" s="30">
+        <v>1</v>
+      </c>
+      <c r="E24" s="30">
+        <v>0</v>
+      </c>
+      <c r="F24" s="30">
+        <v>1</v>
+      </c>
+      <c r="G24" s="30">
+        <v>0</v>
+      </c>
+      <c r="H24" s="30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C25" s="30">
+        <v>1</v>
+      </c>
+      <c r="D25" s="30">
+        <v>1</v>
+      </c>
+      <c r="E25" s="30">
+        <v>0</v>
+      </c>
+      <c r="F25" s="30">
+        <v>1</v>
+      </c>
+      <c r="G25" s="30">
+        <v>1</v>
+      </c>
+      <c r="H25" s="30">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C26" s="30">
+        <v>2</v>
+      </c>
+      <c r="D26" s="30">
+        <v>1</v>
+      </c>
+      <c r="E26" s="30">
+        <v>0</v>
+      </c>
+      <c r="F26" s="30">
+        <v>1</v>
+      </c>
+      <c r="G26" s="30">
+        <v>0</v>
+      </c>
+      <c r="H26" s="30">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C31" s="30">
+        <v>1</v>
+      </c>
+      <c r="D31" s="30">
+        <v>0</v>
+      </c>
+      <c r="E31" s="30">
+        <v>0</v>
+      </c>
+      <c r="F31" s="30">
+        <v>0</v>
+      </c>
+      <c r="G31" s="30">
+        <v>0</v>
+      </c>
+      <c r="H31" s="30">
+        <f>SUM(C31:G31)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C32" s="30">
+        <v>1</v>
+      </c>
+      <c r="D32" s="30">
+        <v>0</v>
+      </c>
+      <c r="E32" s="30">
+        <v>0</v>
+      </c>
+      <c r="F32" s="30">
+        <v>0</v>
+      </c>
+      <c r="G32" s="30">
+        <v>0</v>
+      </c>
+      <c r="H32" s="30">
+        <f>SUM(C32:G32)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C33" s="30">
+        <v>1</v>
+      </c>
+      <c r="D33" s="30">
+        <v>0</v>
+      </c>
+      <c r="E33" s="30">
+        <v>0</v>
+      </c>
+      <c r="F33" s="30">
+        <v>0</v>
+      </c>
+      <c r="G33" s="30">
+        <v>0</v>
+      </c>
+      <c r="H33" s="30">
+        <f>SUM(C33:G33)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C34" s="30">
+        <v>1</v>
+      </c>
+      <c r="D34" s="30">
+        <v>0</v>
+      </c>
+      <c r="E34" s="30">
+        <v>0</v>
+      </c>
+      <c r="F34" s="30">
+        <v>0</v>
+      </c>
+      <c r="G34" s="30">
+        <v>1</v>
+      </c>
+      <c r="H34" s="30">
+        <f>SUM(C34:G34)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C35" s="30">
+        <v>1</v>
+      </c>
+      <c r="D35" s="30">
+        <v>0</v>
+      </c>
+      <c r="E35" s="30">
+        <v>0</v>
+      </c>
+      <c r="F35" s="30">
+        <v>1</v>
+      </c>
+      <c r="G35" s="30">
+        <v>0</v>
+      </c>
+      <c r="H35" s="30">
+        <f>SUM(C35:G35)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C36" s="30">
+        <v>1</v>
+      </c>
+      <c r="D36" s="30">
+        <v>0</v>
+      </c>
+      <c r="E36" s="30">
+        <v>0</v>
+      </c>
+      <c r="F36" s="30">
+        <v>1</v>
+      </c>
+      <c r="G36" s="30">
+        <v>0</v>
+      </c>
+      <c r="H36" s="30">
+        <f>SUM(C36:G36)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C37" s="30">
+        <v>1</v>
+      </c>
+      <c r="D37" s="30">
+        <v>1</v>
+      </c>
+      <c r="E37" s="30">
+        <v>0</v>
+      </c>
+      <c r="F37" s="30">
+        <v>1</v>
+      </c>
+      <c r="G37" s="30">
+        <v>0</v>
+      </c>
+      <c r="H37" s="30">
+        <f>SUM(C37:G37)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C38" s="30">
+        <v>1</v>
+      </c>
+      <c r="D38" s="30">
+        <v>1</v>
+      </c>
+      <c r="E38" s="30">
+        <v>0</v>
+      </c>
+      <c r="F38" s="30">
+        <v>1</v>
+      </c>
+      <c r="G38" s="30">
+        <v>0</v>
+      </c>
+      <c r="H38" s="30">
+        <f>SUM(C38:G38)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="30">
+        <v>1</v>
+      </c>
+      <c r="D39" s="30">
+        <v>1</v>
+      </c>
+      <c r="E39" s="30">
+        <v>0</v>
+      </c>
+      <c r="F39" s="30">
+        <v>1</v>
+      </c>
+      <c r="G39" s="30">
+        <v>0</v>
+      </c>
+      <c r="H39" s="30">
+        <f>SUM(C39:G39)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C40" s="30">
+        <v>1</v>
+      </c>
+      <c r="D40" s="30">
+        <v>1</v>
+      </c>
+      <c r="E40" s="30">
+        <v>0</v>
+      </c>
+      <c r="F40" s="30">
+        <v>1</v>
+      </c>
+      <c r="G40" s="30">
+        <v>0</v>
+      </c>
+      <c r="H40" s="30">
+        <f>SUM(C40:G40)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C41" s="30">
+        <v>1</v>
+      </c>
+      <c r="D41" s="30">
+        <v>1</v>
+      </c>
+      <c r="E41" s="30">
+        <v>0</v>
+      </c>
+      <c r="F41" s="30">
+        <v>1</v>
+      </c>
+      <c r="G41" s="30">
+        <v>0</v>
+      </c>
+      <c r="H41" s="30">
+        <f>SUM(C41:G41)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C42" s="30">
+        <v>1</v>
+      </c>
+      <c r="D42" s="30">
+        <v>1</v>
+      </c>
+      <c r="E42" s="30">
+        <v>0</v>
+      </c>
+      <c r="F42" s="30">
+        <v>1</v>
+      </c>
+      <c r="G42" s="30">
+        <v>0</v>
+      </c>
+      <c r="H42" s="30">
+        <f>SUM(C42:G42)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C43" s="30">
+        <v>1</v>
+      </c>
+      <c r="D43" s="30">
+        <v>1</v>
+      </c>
+      <c r="E43" s="30">
+        <v>1</v>
+      </c>
+      <c r="F43" s="30">
+        <v>0</v>
+      </c>
+      <c r="G43" s="30">
+        <v>0</v>
+      </c>
+      <c r="H43" s="30">
+        <f>SUM(C43:G43)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C44" s="30">
+        <v>1</v>
+      </c>
+      <c r="D44" s="30">
+        <v>1</v>
+      </c>
+      <c r="E44" s="30">
+        <v>0</v>
+      </c>
+      <c r="F44" s="30">
+        <v>1</v>
+      </c>
+      <c r="G44" s="30">
+        <v>0</v>
+      </c>
+      <c r="H44" s="30">
+        <f>SUM(C44:G44)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C45" s="30">
+        <v>1</v>
+      </c>
+      <c r="D45" s="30">
+        <v>1</v>
+      </c>
+      <c r="E45" s="30">
+        <v>0</v>
+      </c>
+      <c r="F45" s="30">
+        <v>1</v>
+      </c>
+      <c r="G45" s="30">
+        <v>1</v>
+      </c>
+      <c r="H45" s="30">
+        <f>SUM(C45:G45)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C46" s="30">
+        <v>2</v>
+      </c>
+      <c r="D46" s="30">
+        <v>1</v>
+      </c>
+      <c r="E46" s="30">
+        <v>0</v>
+      </c>
+      <c r="F46" s="30">
+        <v>1</v>
+      </c>
+      <c r="G46" s="30">
+        <v>0</v>
+      </c>
+      <c r="H46" s="30">
+        <f>SUM(C46:G46)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" s="30">
+        <v>2</v>
+      </c>
+      <c r="D47" s="30">
+        <v>1</v>
+      </c>
+      <c r="E47" s="30">
+        <v>0</v>
+      </c>
+      <c r="F47" s="30">
+        <v>1</v>
+      </c>
+      <c r="G47" s="30">
+        <v>0</v>
+      </c>
+      <c r="H47" s="30">
+        <f>SUM(C47:G47)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C48" s="30">
+        <v>1</v>
+      </c>
+      <c r="D48" s="30">
+        <v>1</v>
+      </c>
+      <c r="E48" s="30">
+        <v>0</v>
+      </c>
+      <c r="F48" s="30">
+        <v>1</v>
+      </c>
+      <c r="G48" s="30">
+        <v>1</v>
+      </c>
+      <c r="H48" s="30">
+        <f>SUM(C48:G48)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C49" s="30">
+        <v>3</v>
+      </c>
+      <c r="D49" s="30">
+        <v>1</v>
+      </c>
+      <c r="E49" s="30">
+        <v>1</v>
+      </c>
+      <c r="F49" s="30">
+        <v>1</v>
+      </c>
+      <c r="G49" s="30">
+        <v>1</v>
+      </c>
+      <c r="H49" s="30">
+        <f>SUM(C49:G49)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C50" s="30">
+        <v>1</v>
+      </c>
+      <c r="D50" s="30">
+        <v>0</v>
+      </c>
+      <c r="E50" s="30">
+        <v>0</v>
+      </c>
+      <c r="F50" s="30">
+        <v>1</v>
+      </c>
+      <c r="G50" s="30">
+        <v>0</v>
+      </c>
+      <c r="H50" s="30">
+        <f>SUM(C50:G50)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C51" s="30">
+        <v>1</v>
+      </c>
+      <c r="D51" s="30">
+        <v>1</v>
+      </c>
+      <c r="E51" s="30">
+        <v>0</v>
+      </c>
+      <c r="F51" s="30">
+        <v>1</v>
+      </c>
+      <c r="G51" s="30">
+        <v>0</v>
+      </c>
+      <c r="H51" s="30">
+        <f>SUM(C51:G51)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C52" s="30">
+        <v>2</v>
+      </c>
+      <c r="D52" s="30">
+        <v>1</v>
+      </c>
+      <c r="E52" s="30">
+        <v>0</v>
+      </c>
+      <c r="F52" s="30">
+        <v>1</v>
+      </c>
+      <c r="G52" s="30">
+        <v>0</v>
+      </c>
+      <c r="H52" s="30">
+        <f>SUM(C52:G52)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" s="30">
+        <v>1</v>
+      </c>
+      <c r="D53" s="30">
+        <v>1</v>
+      </c>
+      <c r="E53" s="30">
+        <v>0</v>
+      </c>
+      <c r="F53" s="30">
+        <v>1</v>
+      </c>
+      <c r="G53" s="30">
+        <v>1</v>
+      </c>
+      <c r="H53" s="30">
+        <f>SUM(C53:G53)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C54" s="30">
+        <v>1</v>
+      </c>
+      <c r="D54" s="30">
+        <v>1</v>
+      </c>
+      <c r="E54" s="30">
+        <v>1</v>
+      </c>
+      <c r="F54" s="30">
+        <v>1</v>
+      </c>
+      <c r="G54" s="30">
+        <v>1</v>
+      </c>
+      <c r="H54" s="30">
+        <f>SUM(C54:G54)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C55" s="30">
+        <v>2</v>
+      </c>
+      <c r="D55" s="30">
+        <v>1</v>
+      </c>
+      <c r="E55" s="30">
+        <v>1</v>
+      </c>
+      <c r="F55" s="30">
+        <v>1</v>
+      </c>
+      <c r="G55" s="30">
+        <v>1</v>
+      </c>
+      <c r="H55" s="30">
+        <f>SUM(C55:G55)</f>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A31:H49">
+    <sortCondition ref="H30:H49"/>
+  </sortState>
+  <conditionalFormatting sqref="C2:C26">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{705B911C-16E6-AF4A-A7FC-F65AB0BAA34A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D26">
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5A3378FF-07BB-E347-9488-12124E8746E0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E26">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EAF9E252-5E50-7C4E-B776-7D7FA9CFC67D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F26">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3B6830C9-15DE-644F-B3A6-02A8CDFA38D7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G26">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{634BF4B7-E311-EA4B-AC4F-EA7E3731A7CD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H26">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EF896C65-B831-D042-9CC0-57202EB8AA2C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{024BD42E-6D02-7843-9818-6A43C466C958}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:C49">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4F077F62-18D8-7544-8688-A872021C7140}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:D49">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BB52D2AF-42C8-D444-BAF7-99116A70B01B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31:E49">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9E138C47-B751-3342-B6D6-474B5187DA9E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31:F49">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{986C6078-5368-7745-AE0C-7B4C4CFBB456}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:G49">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FF60F105-6921-CC40-A72D-F98749EDBAE3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:H49">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7935D6C0-D15A-FB47-ABE6-245C514C2CB1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50:C55">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CC268620-B8AA-F643-8981-BDD50E55562C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D55">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BA7DF1BB-2E18-5B45-B983-C179F4EE3D4E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50:F55">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{750DFE73-C837-2643-B3AB-B894A66160B0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50:G55">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{73A943B3-3814-CD49-AD7E-8533183F76DE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50:H55">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{621EF930-E429-6441-965C-723D47C2AF51}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50:E55">
+    <cfRule type="dataBar" priority="75">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{63A701D7-33FA-624F-869A-B3A3CE5055BA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{705B911C-16E6-AF4A-A7FC-F65AB0BAA34A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C2:C26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5A3378FF-07BB-E347-9488-12124E8746E0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EAF9E252-5E50-7C4E-B776-7D7FA9CFC67D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E1:E26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3B6830C9-15DE-644F-B3A6-02A8CDFA38D7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F2:F26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{634BF4B7-E311-EA4B-AC4F-EA7E3731A7CD}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G2:G26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EF896C65-B831-D042-9CC0-57202EB8AA2C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H2:H26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{024BD42E-6D02-7843-9818-6A43C466C958}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4F077F62-18D8-7544-8688-A872021C7140}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C31:C49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BB52D2AF-42C8-D444-BAF7-99116A70B01B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D31:D49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9E138C47-B751-3342-B6D6-474B5187DA9E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E31:E49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{986C6078-5368-7745-AE0C-7B4C4CFBB456}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F31:F49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FF60F105-6921-CC40-A72D-F98749EDBAE3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G31:G49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7935D6C0-D15A-FB47-ABE6-245C514C2CB1}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H31:H49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CC268620-B8AA-F643-8981-BDD50E55562C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C50:C55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BA7DF1BB-2E18-5B45-B983-C179F4EE3D4E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D50:D55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{750DFE73-C837-2643-B3AB-B894A66160B0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F50:F55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{73A943B3-3814-CD49-AD7E-8533183F76DE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G50:G55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{621EF930-E429-6441-965C-723D47C2AF51}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H50:H55</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{63A701D7-33FA-624F-869A-B3A3CE5055BA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E50:E55</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>